--- a/数据整理/stocks/A股/创业板/300679-电连技术.xlsx
+++ b/数据整理/stocks/A股/创业板/300679-电连技术.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>210002</t>
+          <t>007835</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰红利价值混合</t>
+          <t>国泰鑫睿混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>74.22</t>
+          <t>18.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6124</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002210</t>
+          <t>210002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信量化多因子股票A</t>
+          <t>金鹰红利价值混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.50</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>74.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003865</t>
+          <t>002210</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>创金合信量化多因子股票C</t>
+          <t>创金合信量化多因子股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>89.50</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>0.80</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007835</t>
+          <t>003865</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰鑫睿混合</t>
+          <t>创金合信量化多因子股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>79.41</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,26 +710,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004930</t>
+          <t>210009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华润元大价值优选混合A</t>
+          <t>金鹰核心资源混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>79.93</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -678,26 +748,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004931</t>
+          <t>162102</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华润元大价值优选混合C</t>
+          <t>金鹰中小盘精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>79.93</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -706,26 +786,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>162102</t>
+          <t>000522</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰中小盘精选混合</t>
+          <t>华润元大信息传媒科技混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>77.81</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -734,25 +824,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>210002</t>
+          <t>009882</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金鹰红利价值混合</t>
+          <t>华润元大核心动力混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>79.31</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -762,26 +862,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>210009</t>
+          <t>210002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金鹰核心资源混合</t>
+          <t>金鹰红利价值混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -790,25 +900,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009882</t>
+          <t>004930</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华润元大核心动力混合A</t>
+          <t>华润元大价值优选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>75.36</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>6</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009883</t>
+          <t>005313</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华润元大核心动力混合C</t>
+          <t>万家中证1000指数增强A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>75.36</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -846,26 +976,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000522</t>
+          <t>004931</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华润元大信息传媒科技混合</t>
+          <t>华润元大价值优选混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>79.16</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005313</t>
+          <t>009883</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>万家中证1000指数增强A</t>
+          <t>华润元大核心动力混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -912,15 +1062,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>94.41</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1.15</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300679-电连技术.xlsx
+++ b/数据整理/stocks/A股/创业板/300679-电连技术.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,630 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0708</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8964</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1468</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>42.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009513</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>42.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009514</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300679-电连技术.xlsx
+++ b/数据整理/stocks/A股/创业板/300679-电连技术.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1714,4 +1715,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银领先智选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7488</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006128</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3636</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300679-电连技术.xlsx
+++ b/数据整理/stocks/A股/创业板/300679-电连技术.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2037,4 +2038,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300679-电连技术.xlsx
+++ b/数据整理/stocks/A股/创业板/300679-电连技术.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2046,7 +2047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2057,17 +2058,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2077,14 +2098,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.32</v>
+          <t>007113</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9808</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2093,14 +2136,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.47</v>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银领先智选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9210</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2109,14 +2174,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5</v>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9013</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2125,13 +2212,721 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006128</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5748</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2098</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1287</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002018</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华弘安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011052</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002749</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实稳盛债券</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003004</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商睿祥定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>45.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007114</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011053</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002019</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华弘安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.35</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300679-电连技术.xlsx
+++ b/数据整理/stocks/A股/创业板/300679-电连技术.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2825,7 +2826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2836,17 +2837,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2856,14 +2877,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.08</v>
+          <t>011052</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2872,14 +2915,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>011053</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>1.32</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="4">
@@ -2888,14 +3021,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>2.47</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="5">
@@ -2904,14 +3037,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="6">
@@ -2920,13 +3053,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300679-电连技术.xlsx
+++ b/数据整理/stocks/A股/创业板/300679-电连技术.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2958,7 +2959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2969,17 +2970,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2989,14 +3010,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3005,14 +3048,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.08</v>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3021,14 +3086,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.32</v>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3037,14 +3124,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>2.47</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="6">
@@ -3053,14 +3262,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="7">
@@ -3069,13 +3278,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300679-电连技术.xlsx
+++ b/数据整理/stocks/A股/创业板/300679-电连技术.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>4.08</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>1.32</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>2.47</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.66</v>
       </c>
     </row>
@@ -600,6 +617,480 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4541</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8040</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014311</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>47.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015383</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>71.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014312</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>47.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -807,7 +1298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -939,7 +1430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1717,7 +2208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2039,7 +2530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2665,7 +3156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3101,7 +3592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300679-电连技术.xlsx
+++ b/数据整理/stocks/A股/创业板/300679-电连技术.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>2.92</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>4.08</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>1.32</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>2.47</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.66</v>
       </c>
     </row>
@@ -616,7 +633,1559 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6124</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8291</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014788</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>48.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5478</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>43.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2215</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015383</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1570</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015127</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城产业成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>60.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015630</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信乐融一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013916</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融成长先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014545</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浦银安盛兴耀优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>75.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011717</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015128</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城产业成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>60.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014546</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浦银安盛兴耀优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011054</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014789</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>48.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015631</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信乐融一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>64.84</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011718</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013917</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中融成长先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013084</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>43.59</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>016399</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011055</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>25.20</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1090,7 +2659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1298,7 +2867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1430,7 +2999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2208,7 +3777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2530,7 +4099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3156,7 +4725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3590,212 +5159,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>007835</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰鑫睿混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18.28</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>79.41</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6124</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>210002</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>金鹰红利价值混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>74.22</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0238</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002210</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>创金合信量化多因子股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0197</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003865</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>创金合信量化多因子股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>